--- a/data/trans_camb/P19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 5,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 2,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 2,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,2</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>242,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,38%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,3; 795,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 1311,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,24; 700,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,09; 473,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 454,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 524,23</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 1,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 2,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 3,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 2,43</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,1%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,46; 135,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,08; 238,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,76; 253,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,3; 225,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,81; 112,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,24; 147,85</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 0,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 3,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 2,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 2,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 2,16</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,23%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,19; 52,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,34; 210,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,8; 265,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,16; 193,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,3; 84,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,67; 147,87</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 1,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 2,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 0,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 1,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 0,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 1,02</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,32%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,42; 205,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,43; 316,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,16; 30,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,12; 78,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,23; 21,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,76; 62,31</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,92</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 0,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 0,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; -0,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 0,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; -0,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 0,18</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,54%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,44%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,53%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,49; 39,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,99; 62,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,1; -8,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,6; 23,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,18; -14,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,2; 6,34</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; -0,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,07; 0,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 0,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; -0,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; -0,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; -1,07</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,5%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,78%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,93%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,85%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,07; -0,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,66; 10,25</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,46; 21,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,7; -6,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,37; -11,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,83; -20,99</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; -0,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 0,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 0,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; -0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 0,5</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,45%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,88%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,94; 0,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,78; 53,31</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,47; 23,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,51; 16,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,49; -0,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,28; 19,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-3,01</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -0,59</t>
+          <t>-3,7; 3,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,28</t>
+          <t>-5,69; 0,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,67</t>
+          <t>-7,43; -0,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -0,57</t>
+          <t>-7,15; -0,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -0,63</t>
+          <t>-4,67; 0,12</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,85; -1,07</t>
+          <t>-5,44; -0,95</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-43,78%</t>
+          <t>-52,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-35,66%</t>
+          <t>-59,79%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-56,93%</t>
+          <t>-63,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-46,15%</t>
+          <t>-39,96%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-50,85%</t>
+          <t>-58,8%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-82,07; -0,5</t>
+          <t>-64,94; 164,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,66; 10,25</t>
+          <t>-86,99; 70,03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-65,46; 21,49</t>
+          <t>-86,11; 1,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-79,7; -6,88</t>
+          <t>-87,73; -10,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-68,37; -11,92</t>
+          <t>-71,01; 4,18</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,83; -20,99</t>
+          <t>-80,25; -19,72</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-8,66</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-2,77</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; -0,04</t>
+          <t>-14,94; -4,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,19</t>
+          <t>-9,95; 2,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,62</t>
+          <t>-4,35; 3,28</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,4</t>
+          <t>-6,12; 1,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,0</t>
+          <t>-6,93; -0,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,5</t>
+          <t>-6,29; 0,64</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-34,45%</t>
+          <t>-93,73%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>-38,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>-6,04%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-15,23%</t>
+          <t>-48,19%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-21,16%</t>
+          <t>-52,79%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-4,88%</t>
+          <t>-42,5%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -48,35</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-74,52; 55,22</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-62,79; 141,73</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-88,83; 90,68</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-76,99; -0,66</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-72,77; 19,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; -0,04</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 1,19</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 0,62</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 0,4</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; -0,0</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 0,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-34,45%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-10,71%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-15,23%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-21,16%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-53,94; 0,68</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-24,78; 53,31</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-33,47; 23,9</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-38,51; 16,39</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-39,49; -0,11</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-25,28; 19,99</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,93</t>
+          <t>-0,67; 3,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,11</t>
+          <t>0,49; 4,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,17</t>
+          <t>-0,14; 4,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,94</t>
+          <t>-0,94; 2,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,83</t>
+          <t>0,17; 2,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,2</t>
+          <t>0,31; 3,03</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 795,09</t>
+          <t>-55,98; 900,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 1311,46</t>
+          <t>4,98; 1584,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 700,24</t>
+          <t>-25,06; 893,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 473,4</t>
+          <t>-60,87; 749,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 454,52</t>
+          <t>-6,62; 392,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 524,23</t>
+          <t>8,0; 423,49</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,44</t>
+          <t>-1,94; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,98</t>
+          <t>-0,95; 3,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,38</t>
+          <t>-0,72; 3,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,17</t>
+          <t>-1,27; 3,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,82</t>
+          <t>-0,93; 1,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,43</t>
+          <t>-0,4; 2,55</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,46; 135,02</t>
+          <t>-65,74; 158,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,08; 238,01</t>
+          <t>-37,37; 250,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 253,16</t>
+          <t>-25,53; 213,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 225,97</t>
+          <t>-42,41; 211,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 112,36</t>
+          <t>-33,97; 112,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 147,85</t>
+          <t>-19,16; 158,89</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,56</t>
+          <t>-2,92; 0,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,29</t>
+          <t>-1,01; 3,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 2,68</t>
+          <t>-0,87; 2,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,04</t>
+          <t>-1,28; 2,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,2</t>
+          <t>-1,39; 1,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,16</t>
+          <t>-0,64; 2,0</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,19; 52,88</t>
+          <t>-83,34; 52,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,34; 210,4</t>
+          <t>-31,07; 203,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 265,09</t>
+          <t>-39,63; 247,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 193,16</t>
+          <t>-51,8; 192,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 84,94</t>
+          <t>-51,96; 90,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 147,87</t>
+          <t>-24,78; 138,94</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,04</t>
+          <t>-2,54; 1,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,15</t>
+          <t>-1,92; 2,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,44</t>
+          <t>-3,84; 0,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,31</t>
+          <t>-3,2; 1,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,23</t>
+          <t>-2,47; 0,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,02</t>
+          <t>-1,88; 1,21</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-85,42; 205,16</t>
+          <t>-84,34; 245,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 316,15</t>
+          <t>-70,61; 369,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-81,16; 30,78</t>
+          <t>-80,53; 29,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-69,12; 78,39</t>
+          <t>-68,09; 55,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,23; 21,56</t>
+          <t>-72,47; 23,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 62,31</t>
+          <t>-53,49; 65,83</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,52</t>
+          <t>-4,24; 0,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,5</t>
+          <t>-4,37; 0,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -0,66</t>
+          <t>-6,96; -0,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 0,97</t>
+          <t>-5,78; 1,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,71; -0,66</t>
+          <t>-4,64; -0,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,18</t>
+          <t>-4,12; 0,14</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-85,49; 39,69</t>
+          <t>-87,75; 40,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,99; 62,49</t>
+          <t>-84,59; 53,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-86,1; -8,61</t>
+          <t>-86,18; -6,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-68,6; 23,97</t>
+          <t>-70,84; 34,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-78,18; -14,82</t>
+          <t>-76,77; -16,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,2; 6,34</t>
+          <t>-69,73; 4,54</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,75</t>
+          <t>-4,24; 3,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 0,67</t>
+          <t>-5,42; 0,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -0,46</t>
+          <t>-6,94; -0,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -0,66</t>
+          <t>-7,51; -0,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,12</t>
+          <t>-4,56; 0,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -0,95</t>
+          <t>-5,55; -0,89</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-64,94; 164,88</t>
+          <t>-71,06; 148,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-86,99; 70,03</t>
+          <t>-85,03; 58,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-86,11; 1,71</t>
+          <t>-86,52; -0,58</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-87,73; -10,83</t>
+          <t>-88,78; -3,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 4,18</t>
+          <t>-69,48; 27,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,25; -19,72</t>
+          <t>-79,49; -17,85</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -4,33</t>
+          <t>-14,47; -4,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 2,42</t>
+          <t>-10,69; 2,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,28</t>
+          <t>-4,08; 3,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 1,55</t>
+          <t>-6,56; 1,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -0,29</t>
+          <t>-6,89; -0,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 0,64</t>
+          <t>-6,11; 0,67</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -48,35</t>
+          <t>-100,0; -32,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-74,52; 55,22</t>
+          <t>-76,37; 54,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 141,73</t>
+          <t>-59,12; 138,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-88,83; 90,68</t>
+          <t>-88,24; 105,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-76,99; -0,66</t>
+          <t>-78,56; -7,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 19,61</t>
+          <t>-72,55; 17,86</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,7; -0,04</t>
+          <t>-1,8; -0,13</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,19</t>
+          <t>-0,74; 1,15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,62</t>
+          <t>-1,27; 0,59</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,4</t>
+          <t>-1,38; 0,38</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,0</t>
+          <t>-1,23; -0,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,5</t>
+          <t>-0,83; 0,46</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-53,94; 0,68</t>
+          <t>-57,34; -4,59</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 53,31</t>
+          <t>-24,05; 51,5</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 23,9</t>
+          <t>-35,45; 22,96</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-38,51; 16,39</t>
+          <t>-38,09; 14,71</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-39,49; -0,11</t>
+          <t>-37,9; -0,88</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 19,99</t>
+          <t>-24,51; 17,95</t>
         </is>
       </c>
     </row>
